--- a/projects/mid_atlantic/sensitivity_comparison/user_inputs.xlsx
+++ b/projects/mid_atlantic/sensitivity_comparison/user_inputs.xlsx
@@ -8,33 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benne\PycharmProjects\caes\projects\mid_atlantic\sensitivity_comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A100D3-76EF-4B7E-93DB-42B9CE7C3DB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F053F9-A5F0-4DFC-9AA8-354941D9B38D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PJM" sheetId="1" r:id="rId1"/>
     <sheet name="NYISO" sheetId="2" r:id="rId2"/>
     <sheet name="ISONE" sheetId="3" r:id="rId3"/>
-    <sheet name="MK_5" sheetId="4" r:id="rId4"/>
-    <sheet name="MK_10" sheetId="8" r:id="rId5"/>
-    <sheet name="MK_15" sheetId="9" r:id="rId6"/>
-    <sheet name="MK_20" sheetId="10" r:id="rId7"/>
-    <sheet name="LK_10" sheetId="11" r:id="rId8"/>
-    <sheet name="LK_15" sheetId="14" r:id="rId9"/>
-    <sheet name="LK_20" sheetId="12" r:id="rId10"/>
-    <sheet name="LK_25" sheetId="13" r:id="rId11"/>
-    <sheet name="LK_30" sheetId="5" r:id="rId12"/>
-    <sheet name="UJ_20" sheetId="6" r:id="rId13"/>
-    <sheet name="UJ_25" sheetId="15" r:id="rId14"/>
-    <sheet name="UJ_30" sheetId="16" r:id="rId15"/>
+    <sheet name="MK_3" sheetId="19" r:id="rId4"/>
+    <sheet name="MK_5" sheetId="4" r:id="rId5"/>
+    <sheet name="MK_10" sheetId="8" r:id="rId6"/>
+    <sheet name="MK_15" sheetId="9" r:id="rId7"/>
+    <sheet name="MK_20" sheetId="10" r:id="rId8"/>
+    <sheet name="LK_1" sheetId="21" r:id="rId9"/>
+    <sheet name="LK_5" sheetId="20" r:id="rId10"/>
+    <sheet name="LK_10" sheetId="11" r:id="rId11"/>
+    <sheet name="LK_15" sheetId="14" r:id="rId12"/>
+    <sheet name="LK_20" sheetId="12" r:id="rId13"/>
+    <sheet name="LK_25" sheetId="13" r:id="rId14"/>
+    <sheet name="LK_30" sheetId="5" r:id="rId15"/>
+    <sheet name="UJ_20" sheetId="6" r:id="rId16"/>
+    <sheet name="UJ_25" sheetId="15" r:id="rId17"/>
+    <sheet name="UJ_30" sheetId="16" r:id="rId18"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3015" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3618" uniqueCount="79">
   <si>
     <t>debug</t>
   </si>
@@ -781,7 +784,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -817,6 +820,10 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2132,6 +2139,2880 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4294CE-DD3E-4D90-B907-489D507E60E3}">
+  <dimension ref="A1:E60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="23">
+        <v>167785.58</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="23">
+        <v>4346254.1100000003</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="15">
+        <v>2971.1290742400001</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="15">
+        <v>393.87558212058218</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0.19239999999999999</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="17">
+        <v>5</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>101.24093812963601</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>471.63620768037998</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7">
+        <v>100</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.101325</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.101325</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="9">
+        <v>15.4</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="10">
+        <v>2.75</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="13">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2">
+        <v>14.73</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="5">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>10.617470333209738</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="8">
+        <v>0</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="7">
+        <v>3.4700000000000002E-2</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="7">
+        <v>10</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="7">
+        <v>56.7</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="7">
+        <v>25</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="7">
+        <v>290</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="8">
+        <v>0</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8">
+        <v>1</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8">
+        <v>0</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="8">
+        <v>1</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D3E323-55E6-41B2-BDC9-7A08F730EF8B}">
+  <dimension ref="A1:E60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="19">
+        <v>167785.58</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="19">
+        <v>4346254.1100000003</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="15">
+        <v>2971.1290742400001</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="15">
+        <v>393.87558212058218</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0.19239999999999999</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="17">
+        <v>10.955514339164587</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>99.929083326358594</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>470.80953481337099</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7">
+        <v>100</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.101325</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.101325</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="9">
+        <v>15.4</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="10">
+        <v>2.75</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="13">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2">
+        <v>14.73</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="5">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>10.617470333209738</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="8">
+        <v>0</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="7">
+        <v>3.4700000000000002E-2</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="7">
+        <v>10</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="7">
+        <v>56.7</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="7">
+        <v>25</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="7">
+        <v>290</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="8">
+        <v>0</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8">
+        <v>1</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8">
+        <v>0</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="8">
+        <v>1</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813EF069-B9C7-4B8F-919E-0C286B8B821D}">
+  <dimension ref="A1:E60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="19">
+        <v>187575.58</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="19">
+        <v>4306674.1100000003</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="15">
+        <v>3148.0249358400006</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="15">
+        <v>199.43651476213827</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="20">
+        <v>0.2039</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="17">
+        <v>16.247644137633749</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>95.522492923438193</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>461.922140928494</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7">
+        <v>100</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.101325</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.101325</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="9">
+        <v>15.4</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="10">
+        <v>2.75</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="13">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2">
+        <v>14.73</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="5">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>10.617470333209738</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="8">
+        <v>0</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="7">
+        <v>3.4700000000000002E-2</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="7">
+        <v>10</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="7">
+        <v>56.7</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="7">
+        <v>25</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="7">
+        <v>290</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="8">
+        <v>0</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8">
+        <v>1</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8">
+        <v>0</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="8">
+        <v>1</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED58B663-7E1D-44DD-AB61-CF11C35AA194}">
   <dimension ref="A1:E60"/>
   <sheetViews>
@@ -3089,7 +5970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE5A3BE-BF11-4A12-AAEB-EF03D0935E4A}">
   <dimension ref="A1:E60"/>
   <sheetViews>
@@ -4047,7 +6928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE0AD07-A154-42E3-B06E-8BCBAB85BCF7}">
   <dimension ref="A1:E60"/>
   <sheetViews>
@@ -5005,7 +7886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EC50F7-1DC8-49CE-A367-E792C7B08134}">
   <dimension ref="A1:E60"/>
   <sheetViews>
@@ -5963,7 +8844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C3F529-3AC7-4B6C-BF29-F06000D0B8E3}">
   <dimension ref="A1:E60"/>
   <sheetViews>
@@ -6921,7 +9802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9C2176-1AD7-4814-AEAD-EC7451E0100F}">
   <dimension ref="A1:E60"/>
   <sheetViews>
@@ -9798,6 +12679,964 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DC4F44-3CAE-41C7-B33D-D82864108B0F}">
+  <dimension ref="A1:E60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="19">
+        <v>78551.22</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="19">
+        <v>4407946.45</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1039.7272372800001</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="20">
+        <v>318.04999128000003</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="20">
+        <v>0.18959999999999999</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="17">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>272.21499074529203</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>693.34644631049503</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7">
+        <v>100</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.101325</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.101325</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="9">
+        <v>15.4</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="10">
+        <v>2.75</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="13">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2">
+        <v>14.73</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="5">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>10.617470333209738</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="8">
+        <v>0</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="7">
+        <v>3.4700000000000002E-2</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="7">
+        <v>10</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="7">
+        <v>56.7</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="7">
+        <v>25</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="7">
+        <v>290</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="8">
+        <v>0</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8">
+        <v>1</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8">
+        <v>0</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="8">
+        <v>1</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE5D982-F905-4AC3-B720-703417C89942}">
   <dimension ref="A1:E60"/>
   <sheetViews>
@@ -10755,7 +14594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227424DF-F5FC-4FCD-A058-1D228F767148}">
   <dimension ref="A1:E60"/>
   <sheetViews>
@@ -11713,7 +15552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391EFD37-03E5-47D5-B736-648635A1F133}">
   <dimension ref="A1:E60"/>
   <sheetViews>
@@ -12671,7 +16510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D78D15-889B-4D98-BC6B-78759450000F}">
   <dimension ref="A1:E60"/>
   <sheetViews>
@@ -13629,12 +17468,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D3E323-55E6-41B2-BDC9-7A08F730EF8B}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69921B4-C1D2-4BDD-A094-FE943C1F6337}">
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13667,7 +17506,7 @@
       <c r="A2" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="24" t="s">
         <v>76</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -13682,7 +17521,7 @@
       <c r="A3" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="23">
         <v>167785.58</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -13697,7 +17536,7 @@
       <c r="A4" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="23">
         <v>4346254.1100000003</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -13758,7 +17597,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="17">
-        <v>10.955514339164587</v>
+        <v>1</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>27</v>
@@ -13773,7 +17612,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>99.929083326358594</v>
+        <v>112.67229679400199</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>27</v>
@@ -13788,965 +17627,7 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>470.80953481337099</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="7">
-        <v>100</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2">
-        <v>16.850000000000001</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="5">
-        <v>0.101325</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2">
-        <v>16.850000000000001</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0.101325</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="9">
-        <v>15.4</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="10">
-        <v>2.75</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="13">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="2">
-        <v>10</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="2">
-        <v>14.73</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="5">
-        <v>2.3E-2</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27">
-        <v>10.617470333209738</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="8">
-        <v>0</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="2">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="7">
-        <v>3.4700000000000002E-2</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="7">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="7">
-        <v>0.72</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="7">
-        <v>56.7</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="7">
-        <v>2.9</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="7">
-        <v>25</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="7">
-        <v>3000</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="7">
-        <v>290</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="11"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="8">
-        <v>-1</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="8">
-        <v>-1</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="8">
-        <v>-1</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47" s="8">
-        <v>-1</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="11"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" s="8">
-        <v>-1</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" s="8">
-        <v>-1</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="8">
-        <v>-1</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B52" s="8">
-        <v>-1</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="8">
-        <v>0</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="8"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="8">
-        <v>-1</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54" s="8"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="8">
-        <v>-1</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="8">
-        <v>1</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="8">
-        <v>0</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E57" s="8"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="8">
-        <v>-1</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58" s="8"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="8">
-        <v>-1</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" s="8">
-        <v>1</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813EF069-B9C7-4B8F-919E-0C286B8B821D}">
-  <dimension ref="A1:E60"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="19">
-        <v>187575.58</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="19">
-        <v>4306674.1100000003</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="15">
-        <v>3148.0249358400006</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="15">
-        <v>199.43651476213827</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="20">
-        <v>0.2039</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="17">
-        <v>16.247644137633749</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>95.522492923438193</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>461.922140928494</v>
+        <v>477.71078849667703</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>27</v>
